--- a/resource/TEMPLATE_stock_report.xlsx
+++ b/resource/TEMPLATE_stock_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\COCOA\Hole\ARK\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458D043-393E-4A34-86AA-A1A5A04B25C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559654-ACFB-47C3-9E28-85255865ED9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1320" windowWidth="26970" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18135" yWindow="3135" windowWidth="22515" windowHeight="19065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>股票</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -109,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +122,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,24 +311,30 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>sheet!$B$21:$B$21</c:f>
+              <c:f>sheet!$B$21:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$C$21:$C$21</c:f>
+              <c:f>sheet!$C$21:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>10023448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10002485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,7 +460,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1462,14 +1475,14 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1498,7 +1511,7 @@
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1509,11 +1522,21 @@
       <c r="B21" s="1">
         <v>44284</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>10023448</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10002485</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/resource/TEMPLATE_stock_report.xlsx
+++ b/resource/TEMPLATE_stock_report.xlsx
@@ -1,45 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\COCOA\Hole\ARK\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A559654-ACFB-47C3-9E28-85255865ED9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD59597-591B-41D8-B77D-F0BED250A330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="3135" windowWidth="22515" windowHeight="19065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1125" windowWidth="27435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>股票</t>
+    <t>ARKF持仓变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>ARKW持仓变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持仓股数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUYA</t>
+    <t>ARK总持仓变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,11 +52,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,28 +80,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,16 +109,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -168,20 +153,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN"/>
-              <a:t>持仓股数</a:t>
+              <a:t>本周持仓股数变动</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -199,15 +185,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -216,151 +203,221 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7972999231449666E-2"/>
+          <c:y val="0.22196811537206404"/>
+          <c:w val="0.8984542567538174"/>
+          <c:h val="0.71759762863047971"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sheet!$C$20</c:f>
-              <c:strCache>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>持仓股数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>sheet!$B$21:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>44284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44285</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>sheet!$C$21:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10023448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10002485</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F73-4332-951A-368397E8ABC0}"/>
+              <c16:uniqueId val="{00000000-E7D4-4CA0-AF69-2454F9BA7FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sheet!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7D4-4CA0-AF69-2454F9BA7FAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="333494495"/>
-        <c:axId val="333496159"/>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="2055849296"/>
+        <c:axId val="2055850960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333494495"/>
+        <c:axId val="2055849296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055850960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2055850960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,29 +426,32 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -409,8 +469,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -421,76 +482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333496159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="333496159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="333494495"/>
+        <c:crossAx val="2055849296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -519,8 +511,914 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>持仓股数变动</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021-03-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARKW持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARKF持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARK总持仓变动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$B$26:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10013448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100230000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110243448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5446-4E81-88EA-6C809D1A12B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021-03-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARKW持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARKF持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARK总持仓变动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$C$26:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>102200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112201245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5446-4E81-88EA-6C809D1A12B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021-03-31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARKW持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARKF持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARK总持仓变动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$D$26:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10013408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10013448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20026856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5446-4E81-88EA-6C809D1A12B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021-04-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARKW持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARKF持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARK总持仓变动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$E$26:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10002000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100014000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110016000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5446-4E81-88EA-6C809D1A12B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheet!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021-04-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARKW持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARKF持仓变动</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARK总持仓变动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$F$26:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10013448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100014000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110027448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5446-4E81-88EA-6C809D1A12B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="176531440"/>
+        <c:axId val="176530608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="176531440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176530608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176530608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176531440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -545,14 +1443,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -580,13 +1475,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -619,31 +1511,212 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -657,9 +1730,73 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -667,6 +1804,277 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
@@ -674,8 +2082,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -685,16 +2094,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
@@ -704,123 +2113,69 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -844,45 +2199,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
     <cs:lnRef idx="0"/>
@@ -894,11 +2250,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -912,8 +2269,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -937,23 +2295,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -967,25 +2314,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1000,11 +2334,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1018,11 +2353,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1031,13 +2366,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1045,7 +2381,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1058,10 +2394,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1074,8 +2422,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1086,12 +2435,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1100,15 +2450,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1117,8 +2466,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1132,17 +2482,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1151,8 +2499,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1175,20 +2524,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0703DE4A-177F-4C93-A6FA-6D3804037ECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11F7AA8-95A6-45BF-90A1-B4DCACCC5369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,6 +2550,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9388663-5FEB-44B5-9D13-CCF21C8CE1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1472,88 +2857,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A25:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="2"/>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44286</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44288</v>
+      </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10013448</v>
+      </c>
+      <c r="C26" s="4">
+        <v>102200000</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10013408</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10002000</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10013448</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>1</v>
+      <c r="B27" s="4">
+        <v>100230000</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C27" s="4">
+        <v>10001245</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10013448</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100014000</v>
+      </c>
+      <c r="F27" s="4">
+        <v>100014000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
+      <c r="B28" s="4">
+        <f>SUM(B26:B27)</f>
+        <v>110243448</v>
       </c>
-      <c r="B21" s="1">
-        <v>44284</v>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:F28" si="0">SUM(C26:C27)</f>
+        <v>112201245</v>
       </c>
-      <c r="C21" s="5">
-        <v>10023448</v>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>20026856</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>110016000</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>110027448</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44285</v>
-      </c>
-      <c r="C22" s="5">
-        <v>10002485</v>
-      </c>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/resource/TEMPLATE_stock_report.xlsx
+++ b/resource/TEMPLATE_stock_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD59597-591B-41D8-B77D-F0BED250A330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B1DF6-F48B-47FE-8094-38518DE78DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1125" windowWidth="27435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="33675" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -751,9 +751,6 @@
                 <c:pt idx="1">
                   <c:v>100230000</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>110243448</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -875,9 +872,6 @@
                 <c:pt idx="1">
                   <c:v>10001245</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>112201245</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -996,9 +990,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10013448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20026856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,9 +1112,6 @@
                 <c:pt idx="1">
                   <c:v>100014000</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>110016000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1244,9 +1232,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100014000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110027448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A25:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2933,26 +2918,11 @@
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4">
-        <f>SUM(B26:B27)</f>
-        <v>110243448</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" ref="C28:F28" si="0">SUM(C26:C27)</f>
-        <v>112201245</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>20026856</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>110016000</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>110027448</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/resource/TEMPLATE_stock_report.xlsx
+++ b/resource/TEMPLATE_stock_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carrick/go/src/github.com/skeyic/ark-robot/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B1DF6-F48B-47FE-8094-38518DE78DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979F9A2-8527-5546-AEEE-71D77C0713D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="33675" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="27880" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ARKF持仓变动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ARKW持仓变动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,21 +49,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -75,7 +71,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,21 +99,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +131,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -197,7 +193,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -406,7 +402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2055850960"/>
@@ -479,7 +475,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2055849296"/>
@@ -521,7 +517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -551,7 +547,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -565,7 +561,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -628,7 +624,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -692,7 +688,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -724,16 +720,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:f>sheet!$A$26:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ARKW持仓变动</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARKF持仓变动</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>ARK总持仓变动</c:v>
                 </c:pt>
               </c:strCache>
@@ -741,15 +734,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$B$26:$B$28</c:f>
+              <c:f>sheet!$B$26:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>10013448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100230000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,9 +758,6 @@
               <c:f>sheet!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2021-03-30</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -813,7 +800,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -845,16 +832,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:f>sheet!$A$26:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ARKW持仓变动</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARKF持仓变动</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>ARK总持仓变动</c:v>
                 </c:pt>
               </c:strCache>
@@ -862,16 +846,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$C$26:$C$28</c:f>
+              <c:f>sheet!$C$26:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>102200000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10001245</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -889,9 +867,6 @@
               <c:f>sheet!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2021-03-31</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -932,7 +907,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -964,16 +939,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:f>sheet!$A$26:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ARKW持仓变动</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARKF持仓变动</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>ARK总持仓变动</c:v>
                 </c:pt>
               </c:strCache>
@@ -981,16 +953,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$D$26:$D$28</c:f>
+              <c:f>sheet!$D$26:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10013408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10013448</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1008,9 +974,6 @@
               <c:f>sheet!$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2021-04-01</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1053,7 +1016,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1085,16 +1048,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:f>sheet!$A$26:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ARKW持仓变动</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARKF持仓变动</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>ARK总持仓变动</c:v>
                 </c:pt>
               </c:strCache>
@@ -1102,16 +1062,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$E$26:$E$28</c:f>
+              <c:f>sheet!$E$26:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10002000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100014000</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1129,9 +1083,6 @@
               <c:f>sheet!$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2021-04-02</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1174,7 +1125,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1206,16 +1157,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet!$A$26:$A$28</c:f>
+              <c:f>sheet!$A$26:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ARKW持仓变动</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARKF持仓变动</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>ARK总持仓变动</c:v>
                 </c:pt>
               </c:strCache>
@@ -1223,16 +1171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet!$F$26:$F$28</c:f>
+              <c:f>sheet!$F$26:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10013448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100014000</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1296,7 +1238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="176530608"/>
@@ -1369,7 +1311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="176531440"/>
@@ -1411,7 +1353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1448,7 +1390,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2842,17 +2784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A25:F44"/>
+  <dimension ref="A25:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -2861,71 +2803,40 @@
       <c r="B25" s="1">
         <v>44284</v>
       </c>
-      <c r="C25" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44286</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44287</v>
-      </c>
-      <c r="F25" s="1">
-        <v>44288</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="4">
         <v>10013448</v>
       </c>
-      <c r="C26" s="4">
-        <v>102200000</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10013408</v>
-      </c>
-      <c r="E26" s="4">
-        <v>10002000</v>
-      </c>
-      <c r="F26" s="4">
-        <v>10013448</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
+      <c r="A27" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B27" s="4">
-        <v>100230000</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10001245</v>
-      </c>
-      <c r="D27" s="4">
-        <v>10013448</v>
-      </c>
-      <c r="E27" s="4">
-        <v>100014000</v>
-      </c>
-      <c r="F27" s="4">
-        <v>100014000</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
@@ -2936,22 +2847,17 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
